--- a/Recycling/Met_rec/metrec_Avg_full_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_full_Max.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1455,7 +1455,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3880.751482572018</v>
+        <v>3880.751482572017</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1653,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>22068.15304846801</v>
+        <v>22068.15304846802</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2907,7 +2907,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>394202.5144281869</v>
+        <v>394202.5144281867</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>506145.6532938625</v>
+        <v>506145.6532938626</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3303,7 +3303,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1168276.651783902</v>
+        <v>1168276.651783901</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5085,7 +5085,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1707790.632835988</v>
+        <v>1707790.632835987</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5613,7 +5613,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3166889.077120522</v>
+        <v>3166889.077120523</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6009,7 +6009,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>2792445.082265262</v>
+        <v>2792445.082265261</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Avg_full_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_full_Max.xlsx
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4948.929999289519</v>
+        <v>4948.92999928952</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4096,7 +4096,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4198.591153893425</v>
+        <v>4198.591153893424</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4620,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4355.625985704825</v>
+        <v>4355.625985704826</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5932,7 +5932,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>58614.25035390911</v>
+        <v>58614.25035390912</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5976,7 +5976,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>48321.13386124102</v>
+        <v>48321.13386124103</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7972,7 +7972,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>535434.5446991674</v>
+        <v>535434.5446991675</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8496,7 +8496,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>930886.3136545167</v>
+        <v>930886.3136545168</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8744,7 +8744,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>544718.2352087209</v>
+        <v>544718.2352087208</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8788,7 +8788,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>1381944.813212045</v>
+        <v>1381944.813212046</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>438240.1370731309</v>
+        <v>438240.137073131</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8992,7 +8992,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>1751296.444119323</v>
+        <v>1751296.444119324</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10828,7 +10828,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6324135.679237622</v>
+        <v>6324135.679237623</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10988,7 +10988,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2658477.781489531</v>
+        <v>2658477.781489532</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11192,7 +11192,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2684497.488970706</v>
+        <v>2684497.488970707</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11352,7 +11352,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4690287.764818943</v>
+        <v>4690287.764818942</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12008,7 +12008,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2212963.790038462</v>
+        <v>2212963.790038461</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12504,7 +12504,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1303595.918391545</v>
+        <v>1303595.918391546</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12868,7 +12868,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5717163.323738025</v>
+        <v>5717163.323738024</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13116,7 +13116,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>821217.6220796193</v>
+        <v>821217.6220796192</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13320,7 +13320,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>694991.3158697475</v>
+        <v>694991.3158697477</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13888,7 +13888,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4750110.083029341</v>
+        <v>4750110.08302934</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14864,7 +14864,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1493787.0109961</v>
+        <v>1493787.010996099</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14908,7 +14908,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6196985.489447763</v>
+        <v>6196985.489447764</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14952,7 +14952,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>971378.4665419667</v>
+        <v>971378.4665419664</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15636,7 +15636,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3544371.416182815</v>
+        <v>3544371.416182816</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -15884,7 +15884,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2559321.533920238</v>
+        <v>2559321.533920237</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -16044,7 +16044,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3895057.848820424</v>
+        <v>3895057.848820425</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17064,7 +17064,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3867872.310051034</v>
+        <v>3867872.310051035</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17268,7 +17268,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3626647.594443428</v>
+        <v>3626647.594443429</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17604,7 +17604,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1651183.836722165</v>
+        <v>1651183.836722164</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18784,7 +18784,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>10513444.56821355</v>
+        <v>10513444.56821354</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19396,7 +19396,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>10684485.90084922</v>
+        <v>10684485.90084923</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20328,7 +20328,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2955312.729562772</v>
+        <v>2955312.729562771</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20824,7 +20824,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>13179474.06809986</v>
+        <v>13179474.06809985</v>
       </c>
     </row>
     <row r="13" spans="1:4">
